--- a/scrapper/hak5_ui_overview_observation.xlsx
+++ b/scrapper/hak5_ui_overview_observation.xlsx
@@ -1289,7 +1289,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62:H63"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1454,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
